--- a/TestData/LV_TMTT0036858_VerifyFunctionalityOfDNDSharingFeatureForFVALOBOpportunityAndEngagementOnLightningView.xlsx
+++ b/TestData/LV_TMTT0036858_VerifyFunctionalityOfDNDSharingFeatureForFVALOBOpportunityAndEngagementOnLightningView.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355BB076-F698-44A6-9FD6-02185F4794AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9D48DF-7DF0-41EE-92D8-41F9600E96AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" tabRatio="548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUser" sheetId="2" r:id="rId1"/>
@@ -301,9 +301,6 @@
     <t>10000</t>
   </si>
   <si>
-    <t>Liz Hedgcock</t>
-  </si>
-  <si>
     <t>Tombstone Permission</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Blaise Brunda</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204DA895-5616-4092-9340-8DD85852997B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4767743C-3404-461F-B12D-D05F4986F9CF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -901,7 +901,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -976,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>36</v>
@@ -993,7 +993,7 @@
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -1068,7 +1068,7 @@
         <v>84</v>
       </c>
       <c r="AC2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD2" t="s">
         <v>51</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>75</v>
